--- a/BlackPopulationPercentages.xlsx
+++ b/BlackPopulationPercentages.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="1850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="1850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" iterate="1" iterateCount="1"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Original partition</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>Testing Black Percentage</t>
+  </si>
+  <si>
+    <t>RFModel Accuracy (best mtry)</t>
+  </si>
+  <si>
+    <t>RFModel Black Accuracy</t>
+  </si>
+  <si>
+    <t>RFModel Accuracy</t>
   </si>
 </sst>
 </file>
@@ -97,9 +107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -535,6 +547,250 @@
         <v>0.41297786720321933</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.94579999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <f>222/(222+25)</f>
+        <v>0.89878542510121462</v>
+      </c>
+      <c r="C11" s="1">
+        <f>656/(656+123)</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="D11" s="1">
+        <f>623/(623+115)</f>
+        <v>0.84417344173441733</v>
+      </c>
+      <c r="E11" s="1">
+        <f>551/(105+551)</f>
+        <v>0.83993902439024393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f>821*0.05</f>
+        <v>41.050000000000004</v>
+      </c>
+      <c r="C2">
+        <f>821*0.1</f>
+        <v>82.100000000000009</v>
+      </c>
+      <c r="D2">
+        <f>821*0.2</f>
+        <v>164.20000000000002</v>
+      </c>
+      <c r="E2">
+        <f>821*0.7</f>
+        <v>574.69999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:D3" si="0">3112*0.7</f>
+        <v>2178.3999999999996</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>2178.3999999999996</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2178.3999999999996</v>
+      </c>
+      <c r="E3">
+        <f>3112*0.7</f>
+        <v>2178.3999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:D4" si="1">821-B2</f>
+        <v>779.95</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>738.9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>656.8</v>
+      </c>
+      <c r="E4">
+        <f>821-E2</f>
+        <v>246.30000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:D5" si="2">3112*0.3</f>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="E5">
+        <f>3112*0.3</f>
+        <v>933.59999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:D7" si="3">B2/(B2+B3)</f>
+        <v>1.8495573227601435E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6319398363193992E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.009305899427988E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f>E2/(E2+E3)</f>
+        <v>0.20874650394101196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:D8" si="4">B4/(B4+B5)</f>
+        <v>0.45516617548364513</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44179372197309413</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.41297786720321933</v>
+      </c>
+      <c r="E8" s="1">
+        <f>E4/(E4+E5)</f>
+        <v>0.20874650394101199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.9415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <f>656/(656+123)</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="C11" s="2">
+        <f>623/(623+115)</f>
+        <v>0.84417344173441733</v>
+      </c>
+      <c r="D11" s="2">
+        <f>551/(105+551)</f>
+        <v>0.83993902439024393</v>
+      </c>
+      <c r="E11" s="2">
+        <f>222/(222+25)</f>
+        <v>0.89878542510121462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BlackPopulationPercentages.xlsx
+++ b/BlackPopulationPercentages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Original partition</t>
   </si>
@@ -64,13 +64,19 @@
   </si>
   <si>
     <t>RFModel Accuracy</t>
+  </si>
+  <si>
+    <t>50% Partition</t>
+  </si>
+  <si>
+    <t>30% Partition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +85,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,11 +121,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,36 +610,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -633,37 +658,53 @@
         <f>821*0.1</f>
         <v>82.100000000000009</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <f>821*0.2</f>
         <v>164.20000000000002</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <f>821*0.7</f>
         <v>574.69999999999993</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="5">
+        <f>821*0.5</f>
+        <v>410.5</v>
+      </c>
+      <c r="G2">
+        <f>821*0.3</f>
+        <v>246.29999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:D3" si="0">3112*0.7</f>
+        <f t="shared" ref="B3:G3" si="0">3112*0.7</f>
         <v>2178.3999999999996</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
         <v>2178.3999999999996</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>2178.3999999999996</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <f>3112*0.7</f>
         <v>2178.3999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="5">
+        <f>3112*0.7</f>
+        <v>2178.3999999999996</v>
+      </c>
+      <c r="G3">
+        <f>3112*0.7</f>
+        <v>2178.3999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -675,79 +716,121 @@
         <f t="shared" si="1"/>
         <v>738.9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <f t="shared" si="1"/>
         <v>656.8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f>821-E2</f>
         <v>246.30000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:G4" si="2">821-F2</f>
+        <v>410.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>574.70000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:D5" si="2">3112*0.3</f>
+        <f t="shared" ref="B5:G5" si="3">3112*0.3</f>
         <v>933.59999999999991</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
-        <v>933.59999999999991</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>933.59999999999991</v>
-      </c>
-      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="3"/>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="E5" s="5">
         <f>3112*0.3</f>
         <v>933.59999999999991</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>933.59999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:D7" si="3">B2/(B2+B3)</f>
+      <c r="B7" s="4">
+        <f t="shared" ref="B7:D7" si="4">B2/(B2+B3)</f>
         <v>1.8495573227601435E-2</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="3"/>
+      <c r="C7" s="4">
+        <f t="shared" si="4"/>
         <v>3.6319398363193992E-2</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="3"/>
+      <c r="D7" s="6">
+        <f t="shared" si="4"/>
         <v>7.009305899427988E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <f>E2/(E2+E3)</f>
         <v>0.20874650394101196</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="6">
+        <f t="shared" ref="F7:G7" si="5">F2/(F2+F3)</f>
+        <v>0.15856155123797755</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.10157957685486864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" ref="B8:D8" si="4">B4/(B4+B5)</f>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8:D8" si="6">B4/(B4+B5)</f>
         <v>0.45516617548364513</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="4"/>
+      <c r="C8" s="4">
+        <f t="shared" si="6"/>
         <v>0.44179372197309413</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="4"/>
+      <c r="D8" s="6">
+        <f t="shared" si="6"/>
         <v>0.41297786720321933</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <f>E4/(E4+E5)</f>
         <v>0.20874650394101199</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:G8" si="7">F4/(F4+F5)</f>
+        <v>0.30540882374823303</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="7"/>
+        <v>0.38102499502751447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -757,14 +840,15 @@
       <c r="C10" s="2">
         <v>0.90010000000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>0.89800000000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>0.9415</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -776,16 +860,17 @@
         <f>623/(623+115)</f>
         <v>0.84417344173441733</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <f>551/(105+551)</f>
         <v>0.83993902439024393</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="7">
         <f>222/(222+25)</f>
         <v>0.89878542510121462</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>

--- a/BlackPopulationPercentages.xlsx
+++ b/BlackPopulationPercentages.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="1850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="1850" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="SubSamples" sheetId="1" r:id="rId1"/>
+    <sheet name="More SubSamples" sheetId="2" r:id="rId2"/>
+    <sheet name="Synthetic Data Generation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterate="1" iterateCount="1"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Original partition</t>
   </si>
@@ -70,6 +71,18 @@
   </si>
   <si>
     <t>30% Partition</t>
+  </si>
+  <si>
+    <t>"50%" Equivalent</t>
+  </si>
+  <si>
+    <t>"70%" Equivalent</t>
+  </si>
+  <si>
+    <t>Optimal??</t>
+  </si>
+  <si>
+    <t>Synthetic Records Needed</t>
   </si>
 </sst>
 </file>
@@ -612,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:G3" si="0">3112*0.7</f>
+        <f t="shared" ref="B3:D3" si="0">3112*0.7</f>
         <v>2178.3999999999996</v>
       </c>
       <c r="C3">
@@ -783,15 +796,15 @@
         <f t="shared" si="4"/>
         <v>7.009305899427988E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <f>E2/(E2+E3)</f>
         <v>0.20874650394101196</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <f t="shared" ref="F7:G7" si="5">F2/(F2+F3)</f>
         <v>0.15856155123797755</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <f t="shared" si="5"/>
         <v>0.10157957685486864</v>
       </c>
@@ -875,6 +888,197 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <f>821*0.3</f>
+        <v>246.29999999999998</v>
+      </c>
+      <c r="C2" s="5">
+        <v>411</v>
+      </c>
+      <c r="D2" s="5">
+        <v>575</v>
+      </c>
+      <c r="E2" s="5">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>3112*0.7</f>
+        <v>2178.3999999999996</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:E3" si="0">3112*0.7</f>
+        <v>2178.3999999999996</v>
+      </c>
+      <c r="D3">
+        <f>3112*0.7</f>
+        <v>2178.3999999999996</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2178.3999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4" si="1">821-B2</f>
+        <v>574.70000000000005</v>
+      </c>
+      <c r="C4">
+        <v>574.70000000000005</v>
+      </c>
+      <c r="D4">
+        <v>574.70000000000005</v>
+      </c>
+      <c r="E4">
+        <v>574.70000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:E5" si="2">3112*0.3</f>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>933.59999999999991</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>933.59999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" ref="B7:E7" si="3">B2/(B2+B3)</f>
+        <v>0.10157957685486864</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.15872402873252492</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.2088327159148689</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.30008996272972627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8:E8" si="4">B4/(B4+B5)</f>
+        <v>0.38102499502751447</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38102499502751447</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38102499502751447</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38102499502751447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:E13" si="5">C2-$B$2</f>
+        <v>164.70000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="5"/>
+        <v>328.70000000000005</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="5"/>
+        <v>687.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
